--- a/Content_Based_Recommender/test.xlsx
+++ b/Content_Based_Recommender/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -61,6 +61,12 @@
     <t>The Notebook</t>
   </si>
   <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
     <t>United States, Mexico</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +477,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>75</v>
@@ -491,7 +500,7 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>39</v>
@@ -514,7 +523,7 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>88</v>
@@ -537,7 +546,7 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -560,7 +569,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -583,7 +592,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>57</v>
@@ -606,7 +615,7 @@
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -629,7 +638,7 @@
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>78</v>
@@ -652,13 +661,59 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>53</v>
       </c>
       <c r="G10">
         <v>7.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>1978</v>
+      </c>
+      <c r="D11">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>

--- a/Content_Based_Recommender/test.xlsx
+++ b/Content_Based_Recommender/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Mario</t>
   </si>
   <si>
+    <t>Hello</t>
+  </si>
+  <si>
     <t>United States, Mexico</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>Switzerland</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +483,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>75</v>
@@ -500,7 +506,7 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>39</v>
@@ -523,7 +529,7 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>88</v>
@@ -546,7 +552,7 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -569,7 +575,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -592,7 +598,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>57</v>
@@ -615,7 +621,7 @@
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -638,7 +644,7 @@
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>78</v>
@@ -661,7 +667,7 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>53</v>
@@ -684,7 +690,7 @@
         <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>87</v>
@@ -707,13 +713,36 @@
         <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12">
         <v>7.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>2008</v>
+      </c>
+      <c r="D13">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Content_Based_Recommender/test.xlsx
+++ b/Content_Based_Recommender/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>Zola</t>
+  </si>
+  <si>
+    <t>Unforgiven</t>
   </si>
   <si>
     <t>United States, Mexico</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +489,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>75</v>
@@ -506,7 +512,7 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>39</v>
@@ -529,7 +535,7 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>88</v>
@@ -552,7 +558,7 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -575,7 +581,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -598,7 +604,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>57</v>
@@ -621,7 +627,7 @@
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -644,7 +650,7 @@
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>78</v>
@@ -667,7 +673,7 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>53</v>
@@ -690,7 +696,7 @@
         <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>87</v>
@@ -713,7 +719,7 @@
         <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -736,13 +742,59 @@
         <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1992</v>
+      </c>
+      <c r="D15">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
